--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Nodal</t>
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H2">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I2">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J2">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N2">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O2">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P2">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q2">
-        <v>5.305948588877333</v>
+        <v>2.179090508294</v>
       </c>
       <c r="R2">
-        <v>47.753537299896</v>
+        <v>19.611814574646</v>
       </c>
       <c r="S2">
-        <v>0.11077964915608</v>
+        <v>0.05498023744083675</v>
       </c>
       <c r="T2">
-        <v>0.11077964915608</v>
+        <v>0.05498023744083676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H3">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I3">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J3">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N3">
         <v>23.79245</v>
       </c>
       <c r="O3">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P3">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q3">
-        <v>11.64731896252222</v>
+        <v>4.966930367238889</v>
       </c>
       <c r="R3">
-        <v>104.8258706627</v>
+        <v>44.70237330515</v>
       </c>
       <c r="S3">
-        <v>0.2431772352604299</v>
+        <v>0.1253197193524064</v>
       </c>
       <c r="T3">
-        <v>0.2431772352604299</v>
+        <v>0.1253197193524064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H4">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I4">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J4">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N4">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O4">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P4">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q4">
-        <v>6.401489610930224</v>
+        <v>2.985602283906222</v>
       </c>
       <c r="R4">
-        <v>57.61340649837202</v>
+        <v>26.870420555156</v>
       </c>
       <c r="S4">
-        <v>0.133652778819176</v>
+        <v>0.07532918979192844</v>
       </c>
       <c r="T4">
-        <v>0.133652778819176</v>
+        <v>0.07532918979192847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H5">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I5">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J5">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N5">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O5">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P5">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q5">
-        <v>1.520915662584</v>
+        <v>0.8448548676666666</v>
       </c>
       <c r="R5">
-        <v>13.688240963256</v>
+        <v>7.603693808999999</v>
       </c>
       <c r="S5">
-        <v>0.03175426611751093</v>
+        <v>0.0213163799532704</v>
       </c>
       <c r="T5">
-        <v>0.03175426611751093</v>
+        <v>0.02131637995327041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H6">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I6">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J6">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N6">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O6">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P6">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q6">
-        <v>7.714652990307111</v>
+        <v>2.439748797905778</v>
       </c>
       <c r="R6">
-        <v>69.43187691276401</v>
+        <v>21.957739181152</v>
       </c>
       <c r="S6">
-        <v>0.1610695123240824</v>
+        <v>0.06155685947614525</v>
       </c>
       <c r="T6">
-        <v>0.1610695123240824</v>
+        <v>0.06155685947614527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.220547</v>
       </c>
       <c r="I7">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J7">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N7">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O7">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P7">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q7">
-        <v>1.469901497308</v>
+        <v>1.415592851694</v>
       </c>
       <c r="R7">
-        <v>13.229113475772</v>
+        <v>12.740335665246</v>
       </c>
       <c r="S7">
-        <v>0.03068917262167265</v>
+        <v>0.03571656652601355</v>
       </c>
       <c r="T7">
-        <v>0.03068917262167265</v>
+        <v>0.03571656652601356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.220547</v>
       </c>
       <c r="I8">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J8">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N8">
         <v>23.79245</v>
       </c>
       <c r="O8">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P8">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q8">
-        <v>3.226644830016666</v>
+        <v>3.226644830016667</v>
       </c>
       <c r="R8">
-        <v>29.03980347014999</v>
+        <v>29.03980347015001</v>
       </c>
       <c r="S8">
-        <v>0.06736714015092946</v>
+        <v>0.08141089056023269</v>
       </c>
       <c r="T8">
-        <v>0.06736714015092946</v>
+        <v>0.08141089056023272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>1.220547</v>
       </c>
       <c r="I9">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J9">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N9">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O9">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P9">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q9">
-        <v>1.773398103372667</v>
+        <v>1.939523500750667</v>
       </c>
       <c r="R9">
-        <v>15.960582930354</v>
+        <v>17.455711506756</v>
       </c>
       <c r="S9">
-        <v>0.03702569228007715</v>
+        <v>0.04893576571853318</v>
       </c>
       <c r="T9">
-        <v>0.03702569228007714</v>
+        <v>0.04893576571853319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>1.220547</v>
       </c>
       <c r="I10">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J10">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N10">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O10">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P10">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q10">
-        <v>0.421337706588</v>
+        <v>0.548839301</v>
       </c>
       <c r="R10">
-        <v>3.792039359291999</v>
+        <v>4.939553709</v>
       </c>
       <c r="S10">
-        <v>0.008796851784408628</v>
+        <v>0.01384766487256511</v>
       </c>
       <c r="T10">
-        <v>0.008796851784408628</v>
+        <v>0.01384766487256511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>1.220547</v>
       </c>
       <c r="I11">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J11">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N11">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O11">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P11">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q11">
-        <v>2.137182407955333</v>
+        <v>1.584923134261333</v>
       </c>
       <c r="R11">
-        <v>19.234641671598</v>
+        <v>14.264308208352</v>
       </c>
       <c r="S11">
-        <v>0.0446209218521532</v>
+        <v>0.03998890817774447</v>
       </c>
       <c r="T11">
-        <v>0.0446209218521532</v>
+        <v>0.03998890817774448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H12">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I12">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J12">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N12">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O12">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P12">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q12">
-        <v>0.4378511986693333</v>
+        <v>0.8445724556080001</v>
       </c>
       <c r="R12">
-        <v>3.940660788023999</v>
+        <v>7.601152100472</v>
       </c>
       <c r="S12">
-        <v>0.009141626866275541</v>
+        <v>0.02130925446583308</v>
       </c>
       <c r="T12">
-        <v>0.009141626866275541</v>
+        <v>0.02130925446583308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H13">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I13">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J13">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N13">
         <v>23.79245</v>
       </c>
       <c r="O13">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P13">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q13">
-        <v>0.9611462462555553</v>
+        <v>1.925084139977778</v>
       </c>
       <c r="R13">
-        <v>8.650316216299998</v>
+        <v>17.3257572598</v>
       </c>
       <c r="S13">
-        <v>0.02006718349496908</v>
+        <v>0.04857144882542311</v>
       </c>
       <c r="T13">
-        <v>0.02006718349496908</v>
+        <v>0.04857144882542311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H14">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I14">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J14">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N14">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O14">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P14">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q14">
-        <v>0.5282561360075556</v>
+        <v>1.157160495532444</v>
       </c>
       <c r="R14">
-        <v>4.754305224068</v>
+        <v>10.414444459792</v>
       </c>
       <c r="S14">
-        <v>0.01102913615373826</v>
+        <v>0.02919610661391879</v>
       </c>
       <c r="T14">
-        <v>0.01102913615373826</v>
+        <v>0.02919610661391879</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H15">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I15">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J15">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N15">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O15">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P15">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q15">
-        <v>0.125507199096</v>
+        <v>0.3274490653333333</v>
       </c>
       <c r="R15">
-        <v>1.129564791864</v>
+        <v>2.947041588</v>
       </c>
       <c r="S15">
-        <v>0.002620387900395955</v>
+        <v>0.008261807985158623</v>
       </c>
       <c r="T15">
-        <v>0.002620387900395955</v>
+        <v>0.008261807985158623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H16">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I16">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J16">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N16">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O16">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P16">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q16">
-        <v>0.6366194475017777</v>
+        <v>0.9455984620515556</v>
       </c>
       <c r="R16">
-        <v>5.729575027515999</v>
+        <v>8.510386158464</v>
       </c>
       <c r="S16">
-        <v>0.01329158733049587</v>
+        <v>0.02385822331353584</v>
       </c>
       <c r="T16">
-        <v>0.01329158733049587</v>
+        <v>0.02385822331353584</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H17">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I17">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J17">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N17">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O17">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P17">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q17">
-        <v>0.5841937977239999</v>
+        <v>0.664924924818</v>
       </c>
       <c r="R17">
-        <v>5.257744179515999</v>
+        <v>5.984324323362</v>
       </c>
       <c r="S17">
-        <v>0.01219702431468826</v>
+        <v>0.01677660019520944</v>
       </c>
       <c r="T17">
-        <v>0.01219702431468826</v>
+        <v>0.01677660019520945</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H18">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I18">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J18">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N18">
         <v>23.79245</v>
       </c>
       <c r="O18">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P18">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q18">
-        <v>1.28238926255</v>
+        <v>1.51560285745</v>
       </c>
       <c r="R18">
-        <v>11.54150336295</v>
+        <v>13.64042571705</v>
       </c>
       <c r="S18">
-        <v>0.02677421957774221</v>
+        <v>0.0382399008446184</v>
       </c>
       <c r="T18">
-        <v>0.02677421957774221</v>
+        <v>0.0382399008446184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H19">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I19">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J19">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N19">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O19">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P19">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q19">
-        <v>0.7048146932180001</v>
+        <v>0.911022909148</v>
       </c>
       <c r="R19">
-        <v>6.343332238962</v>
+        <v>8.199206182332</v>
       </c>
       <c r="S19">
-        <v>0.01471539407645499</v>
+        <v>0.02298585380843715</v>
       </c>
       <c r="T19">
-        <v>0.01471539407645499</v>
+        <v>0.02298585380843715</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H20">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I20">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J20">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N20">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O20">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P20">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q20">
-        <v>0.167455353564</v>
+        <v>0.257797947</v>
       </c>
       <c r="R20">
-        <v>1.507098182076</v>
+        <v>2.320181523</v>
       </c>
       <c r="S20">
-        <v>0.003496197712132811</v>
+        <v>0.006504453249588447</v>
       </c>
       <c r="T20">
-        <v>0.003496197712132811</v>
+        <v>0.006504453249588447</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H21">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I21">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J21">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N21">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O21">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P21">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q21">
-        <v>0.8493961735659998</v>
+        <v>0.7444618660160001</v>
       </c>
       <c r="R21">
-        <v>7.644565562093999</v>
+        <v>6.700156794144</v>
       </c>
       <c r="S21">
-        <v>0.01773402220658676</v>
+        <v>0.0187833823347028</v>
       </c>
       <c r="T21">
-        <v>0.01773402220658676</v>
+        <v>0.01878338233470281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.149562</v>
+      </c>
+      <c r="I22">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J22">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.479406</v>
+      </c>
+      <c r="N22">
+        <v>10.438218</v>
+      </c>
+      <c r="O22">
+        <v>0.1624220085658938</v>
+      </c>
+      <c r="P22">
+        <v>0.1624220085658938</v>
+      </c>
+      <c r="Q22">
+        <v>1.333264306724</v>
+      </c>
+      <c r="R22">
+        <v>11.999378760516</v>
+      </c>
+      <c r="S22">
+        <v>0.03363934993800091</v>
+      </c>
+      <c r="T22">
+        <v>0.03363934993800091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.149562</v>
+      </c>
+      <c r="I23">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J23">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N23">
+        <v>23.79245</v>
+      </c>
+      <c r="O23">
+        <v>0.3702181270503834</v>
+      </c>
+      <c r="P23">
+        <v>0.3702181270503834</v>
+      </c>
+      <c r="Q23">
+        <v>3.038988489655556</v>
+      </c>
+      <c r="R23">
+        <v>27.3508964069</v>
+      </c>
+      <c r="S23">
+        <v>0.07667616746770277</v>
+      </c>
+      <c r="T23">
+        <v>0.07667616746770278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.149562</v>
+      </c>
+      <c r="I24">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J24">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.767182666666667</v>
+      </c>
+      <c r="N24">
+        <v>14.301548</v>
+      </c>
+      <c r="O24">
+        <v>0.2225366582458366</v>
+      </c>
+      <c r="P24">
+        <v>0.2225366582458366</v>
+      </c>
+      <c r="Q24">
+        <v>1.826724013552889</v>
+      </c>
+      <c r="R24">
+        <v>16.440516121976</v>
+      </c>
+      <c r="S24">
+        <v>0.04608974231301903</v>
+      </c>
+      <c r="T24">
+        <v>0.04608974231301903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.149562</v>
+      </c>
+      <c r="I25">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J25">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.349</v>
+      </c>
+      <c r="N25">
+        <v>4.047</v>
+      </c>
+      <c r="O25">
+        <v>0.06297261358846615</v>
+      </c>
+      <c r="P25">
+        <v>0.06297261358846615</v>
+      </c>
+      <c r="Q25">
+        <v>0.5169197126666667</v>
+      </c>
+      <c r="R25">
+        <v>4.652277413999999</v>
+      </c>
+      <c r="S25">
+        <v>0.01304230752788356</v>
+      </c>
+      <c r="T25">
+        <v>0.01304230752788356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.149562</v>
+      </c>
+      <c r="I26">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J26">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.895605333333334</v>
+      </c>
+      <c r="N26">
+        <v>11.686816</v>
+      </c>
+      <c r="O26">
+        <v>0.1818505925494202</v>
+      </c>
+      <c r="P26">
+        <v>0.1818505925494202</v>
+      </c>
+      <c r="Q26">
+        <v>1.492746619399111</v>
+      </c>
+      <c r="R26">
+        <v>13.434719574592</v>
+      </c>
+      <c r="S26">
+        <v>0.03766321924729182</v>
+      </c>
+      <c r="T26">
+        <v>0.03766321924729182</v>
       </c>
     </row>
   </sheetData>
